--- a/히팅데이터2.xlsx
+++ b/히팅데이터2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18255" windowHeight="11610" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="18255" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -148,7 +148,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X261"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -574,23 +574,23 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F27" ca="1" si="0">INDIRECT("A"&amp;B3*5+1)</f>
+        <f t="shared" ref="F3:F26" ca="1" si="0">INDIRECT("A"&amp;B3*5+1)</f>
         <v>4100</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G64" ca="1" si="1">INDIRECT("A"&amp;$B3*5+2)</f>
+        <f t="shared" ref="G3:G52" ca="1" si="1">INDIRECT("A"&amp;$B3*5+2)</f>
         <v>1027</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H64" ca="1" si="2">INDIRECT("A"&amp;$B3*5+3)</f>
+        <f t="shared" ref="H3:H52" ca="1" si="2">INDIRECT("A"&amp;$B3*5+3)</f>
         <v>6.3965884861407196E-2</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I64" ca="1" si="3">INDIRECT("A"&amp;$B3*5+4)</f>
+        <f t="shared" ref="I3:I52" ca="1" si="3">INDIRECT("A"&amp;$B3*5+4)</f>
         <v>1.8450184501845001E-2</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J64" ca="1" si="4">INDIRECT("A"&amp;$B3*5+5)</f>
+        <f t="shared" ref="J3:J52" ca="1" si="4">INDIRECT("A"&amp;$B3*5+5)</f>
         <v>-3.1520054634761301E-3</v>
       </c>
       <c r="L3">
@@ -5248,8 +5248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="O78" sqref="O78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/히팅데이터2.xlsx
+++ b/히팅데이터2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18255" windowHeight="11610"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="18255" windowHeight="11610" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
@@ -5248,7 +5248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X390"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O78" sqref="O78"/>
     </sheetView>
   </sheetViews>
